--- a/REGULAR/COLETO, HANY ROY.xlsx
+++ b/REGULAR/COLETO, HANY ROY.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADC1205-412B-4A5F-8341-B8FE6231A543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFF5FA0-FDAF-4D21-9AA1-A34121177A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="100">
   <si>
     <t>PERIOD</t>
   </si>
@@ -328,6 +328,12 @@
   </si>
   <si>
     <t>3/7,8,9,10/2023</t>
+  </si>
+  <si>
+    <t>SL(4-0-0)</t>
+  </si>
+  <si>
+    <t>3/20,21,22,23/2023</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1028,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K241" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K242" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
@@ -1351,12 +1357,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K241"/>
+  <dimension ref="A2:K242"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3576" topLeftCell="A160" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="D173" sqref="D173"/>
+      <selection pane="bottomLeft" activeCell="B174" sqref="B174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1515,7 +1521,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>43.597999999999985</v>
+        <v>44.847999999999985</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1525,7 +1531,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>105.792</v>
+        <v>103.042</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4874,15 +4880,17 @@
       <c r="B172" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="C172" s="13"/>
+      <c r="C172" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D172" s="39">
         <v>4</v>
       </c>
       <c r="E172" s="9"/>
       <c r="F172" s="20"/>
-      <c r="G172" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G172" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H172" s="39"/>
       <c r="I172" s="9"/>
@@ -4892,10 +4900,10 @@
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A173" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B173" s="20"/>
+      <c r="A173" s="40"/>
+      <c r="B173" s="20" t="s">
+        <v>98</v>
+      </c>
       <c r="C173" s="13"/>
       <c r="D173" s="39"/>
       <c r="E173" s="9"/>
@@ -4904,14 +4912,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H173" s="39"/>
+      <c r="H173" s="39">
+        <v>4</v>
+      </c>
       <c r="I173" s="9"/>
       <c r="J173" s="11"/>
-      <c r="K173" s="20"/>
+      <c r="K173" s="20" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B174" s="20"/>
       <c r="C174" s="13"/>
@@ -4929,7 +4941,7 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -4947,7 +4959,7 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
@@ -4965,7 +4977,7 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -4983,7 +4995,7 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
@@ -5001,7 +5013,7 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
@@ -5019,7 +5031,7 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B180" s="20"/>
       <c r="C180" s="13"/>
@@ -5037,7 +5049,7 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -5055,7 +5067,7 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B182" s="20"/>
       <c r="C182" s="13"/>
@@ -5073,7 +5085,7 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B183" s="20"/>
       <c r="C183" s="13"/>
@@ -5091,7 +5103,7 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B184" s="20"/>
       <c r="C184" s="13"/>
@@ -5109,7 +5121,7 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B185" s="20"/>
       <c r="C185" s="13"/>
@@ -5127,7 +5139,7 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B186" s="20"/>
       <c r="C186" s="13"/>
@@ -5145,7 +5157,7 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B187" s="20"/>
       <c r="C187" s="13"/>
@@ -5163,7 +5175,7 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B188" s="20"/>
       <c r="C188" s="13"/>
@@ -5181,7 +5193,7 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B189" s="20"/>
       <c r="C189" s="13"/>
@@ -5199,7 +5211,7 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B190" s="20"/>
       <c r="C190" s="13"/>
@@ -5217,7 +5229,7 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B191" s="20"/>
       <c r="C191" s="13"/>
@@ -5235,7 +5247,7 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B192" s="20"/>
       <c r="C192" s="13"/>
@@ -5253,7 +5265,7 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B193" s="20"/>
       <c r="C193" s="13"/>
@@ -5271,7 +5283,7 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -5289,7 +5301,7 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B195" s="20"/>
       <c r="C195" s="13"/>
@@ -5307,7 +5319,7 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B196" s="20"/>
       <c r="C196" s="13"/>
@@ -5325,7 +5337,7 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B197" s="20"/>
       <c r="C197" s="13"/>
@@ -5343,7 +5355,7 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B198" s="20"/>
       <c r="C198" s="13"/>
@@ -5361,7 +5373,7 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B199" s="20"/>
       <c r="C199" s="13"/>
@@ -5379,7 +5391,7 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B200" s="20"/>
       <c r="C200" s="13"/>
@@ -5397,7 +5409,7 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B201" s="20"/>
       <c r="C201" s="13"/>
@@ -5415,7 +5427,7 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B202" s="20"/>
       <c r="C202" s="13"/>
@@ -5433,7 +5445,7 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B203" s="20"/>
       <c r="C203" s="13"/>
@@ -5451,7 +5463,7 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B204" s="20"/>
       <c r="C204" s="13"/>
@@ -5469,7 +5481,7 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B205" s="20"/>
       <c r="C205" s="13"/>
@@ -5487,7 +5499,7 @@
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B206" s="20"/>
       <c r="C206" s="13"/>
@@ -5505,7 +5517,7 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B207" s="20"/>
       <c r="C207" s="13"/>
@@ -5523,7 +5535,7 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B208" s="20"/>
       <c r="C208" s="13"/>
@@ -5541,7 +5553,7 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B209" s="20"/>
       <c r="C209" s="13"/>
@@ -5559,7 +5571,7 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B210" s="20"/>
       <c r="C210" s="13"/>
@@ -5577,7 +5589,7 @@
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B211" s="20"/>
       <c r="C211" s="13"/>
@@ -5594,7 +5606,9 @@
       <c r="K211" s="20"/>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A212" s="40"/>
+      <c r="A212" s="40">
+        <v>46174</v>
+      </c>
       <c r="B212" s="20"/>
       <c r="C212" s="13"/>
       <c r="D212" s="39"/>
@@ -6058,20 +6072,36 @@
       <c r="K240" s="20"/>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A241" s="41"/>
-      <c r="B241" s="15"/>
-      <c r="C241" s="42"/>
-      <c r="D241" s="43"/>
-      <c r="E241" s="50"/>
-      <c r="F241" s="15"/>
+      <c r="A241" s="40"/>
+      <c r="B241" s="20"/>
+      <c r="C241" s="13"/>
+      <c r="D241" s="39"/>
+      <c r="E241" s="9"/>
+      <c r="F241" s="20"/>
       <c r="G241" s="42" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H241" s="43"/>
-      <c r="I241" s="50"/>
-      <c r="J241" s="12"/>
-      <c r="K241" s="15"/>
+      <c r="H241" s="39"/>
+      <c r="I241" s="9"/>
+      <c r="J241" s="11"/>
+      <c r="K241" s="20"/>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A242" s="41"/>
+      <c r="B242" s="15"/>
+      <c r="C242" s="42"/>
+      <c r="D242" s="43"/>
+      <c r="E242" s="50"/>
+      <c r="F242" s="15"/>
+      <c r="G242" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H242" s="43"/>
+      <c r="I242" s="50"/>
+      <c r="J242" s="12"/>
+      <c r="K242" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/COLETO, HANY ROY.xlsx
+++ b/REGULAR/COLETO, HANY ROY.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFF5FA0-FDAF-4D21-9AA1-A34121177A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="102">
   <si>
     <t>PERIOD</t>
   </si>
@@ -334,12 +333,18 @@
   </si>
   <si>
     <t>3/20,21,22,23/2023</t>
+  </si>
+  <si>
+    <t>ONT</t>
+  </si>
+  <si>
+    <t>ANNIV 5/18/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1028,25 +1033,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K242" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K242" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1353,34 +1358,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K242"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A160" activePane="bottomLeft"/>
-      <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B174" sqref="B174"/>
+      <pane ySplit="3570" topLeftCell="A160" activePane="bottomLeft"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection pane="bottomLeft" activeCell="B176" sqref="B176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1401,7 +1406,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1419,7 +1424,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1430,7 +1435,9 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53"/>
+      <c r="F4" s="53" t="s">
+        <v>100</v>
+      </c>
       <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
@@ -1439,7 +1446,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1447,7 +1454,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1460,7 +1467,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -1477,7 +1484,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1512,7 +1519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1521,7 +1528,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>44.847999999999985</v>
+        <v>46.097999999999985</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1531,12 +1538,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>103.042</v>
+        <v>104.292</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -1559,7 +1566,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>40634</v>
       </c>
@@ -1579,7 +1586,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>40664</v>
       </c>
@@ -1603,7 +1610,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>40695</v>
       </c>
@@ -1623,7 +1630,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>40725</v>
       </c>
@@ -1643,7 +1650,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>40756</v>
       </c>
@@ -1663,7 +1670,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>40787</v>
       </c>
@@ -1683,7 +1690,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>40817</v>
       </c>
@@ -1703,7 +1710,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>40848</v>
       </c>
@@ -1723,7 +1730,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>40878</v>
       </c>
@@ -1743,7 +1750,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="48" t="s">
         <v>46</v>
       </c>
@@ -1761,7 +1768,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>40909</v>
       </c>
@@ -1781,7 +1788,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>40940</v>
       </c>
@@ -1801,7 +1808,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>40969</v>
       </c>
@@ -1821,7 +1828,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>41000</v>
       </c>
@@ -1841,7 +1848,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>41030</v>
       </c>
@@ -1861,7 +1868,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>41061</v>
       </c>
@@ -1881,7 +1888,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>41091</v>
       </c>
@@ -1907,7 +1914,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>41122</v>
       </c>
@@ -1927,7 +1934,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>41153</v>
       </c>
@@ -1947,7 +1954,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>41183</v>
       </c>
@@ -1967,7 +1974,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>41214</v>
       </c>
@@ -1987,7 +1994,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>41244</v>
       </c>
@@ -2007,7 +2014,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
         <v>49</v>
       </c>
@@ -2025,7 +2032,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>41275</v>
       </c>
@@ -2045,7 +2052,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>41306</v>
       </c>
@@ -2065,7 +2072,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>41334</v>
       </c>
@@ -2085,7 +2092,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>41365</v>
       </c>
@@ -2111,7 +2118,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>41395</v>
       </c>
@@ -2131,7 +2138,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>41426</v>
       </c>
@@ -2151,7 +2158,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>41456</v>
       </c>
@@ -2175,7 +2182,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>41487</v>
       </c>
@@ -2201,7 +2208,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>54</v>
@@ -2220,7 +2227,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>41518</v>
       </c>
@@ -2246,7 +2253,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>41548</v>
       </c>
@@ -2266,7 +2273,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>41579</v>
       </c>
@@ -2286,7 +2293,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>41609</v>
       </c>
@@ -2306,7 +2313,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="48" t="s">
         <v>58</v>
       </c>
@@ -2324,7 +2331,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>41640</v>
       </c>
@@ -2344,7 +2351,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>41671</v>
       </c>
@@ -2364,7 +2371,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>41699</v>
       </c>
@@ -2384,7 +2391,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>41730</v>
       </c>
@@ -2404,7 +2411,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>41760</v>
       </c>
@@ -2424,7 +2431,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>41791</v>
       </c>
@@ -2444,7 +2451,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>41821</v>
       </c>
@@ -2464,7 +2471,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>41852</v>
       </c>
@@ -2484,7 +2491,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>41883</v>
       </c>
@@ -2504,7 +2511,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>41913</v>
       </c>
@@ -2524,7 +2531,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>41944</v>
       </c>
@@ -2544,7 +2551,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>41974</v>
       </c>
@@ -2568,7 +2575,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="48" t="s">
         <v>60</v>
       </c>
@@ -2586,7 +2593,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>42005</v>
       </c>
@@ -2606,7 +2613,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>42036</v>
       </c>
@@ -2626,7 +2633,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>42064</v>
       </c>
@@ -2646,7 +2653,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>42095</v>
       </c>
@@ -2666,7 +2673,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>42125</v>
       </c>
@@ -2686,7 +2693,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>42156</v>
       </c>
@@ -2706,7 +2713,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>42186</v>
       </c>
@@ -2726,7 +2733,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>42217</v>
       </c>
@@ -2746,7 +2753,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>42248</v>
       </c>
@@ -2766,7 +2773,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>42278</v>
       </c>
@@ -2786,7 +2793,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>42309</v>
       </c>
@@ -2806,7 +2813,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>42339</v>
       </c>
@@ -2830,7 +2837,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="48" t="s">
         <v>61</v>
       </c>
@@ -2848,7 +2855,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>42370</v>
       </c>
@@ -2868,7 +2875,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>42401</v>
       </c>
@@ -2888,7 +2895,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>42430</v>
       </c>
@@ -2914,7 +2921,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>42461</v>
       </c>
@@ -2934,7 +2941,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>42491</v>
       </c>
@@ -2954,7 +2961,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>42522</v>
       </c>
@@ -2974,7 +2981,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>42552</v>
       </c>
@@ -2994,7 +3001,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>42583</v>
       </c>
@@ -3014,7 +3021,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>42614</v>
       </c>
@@ -3034,7 +3041,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>42644</v>
       </c>
@@ -3054,7 +3061,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>42675</v>
       </c>
@@ -3078,7 +3085,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>42705</v>
       </c>
@@ -3102,7 +3109,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="48" t="s">
         <v>62</v>
       </c>
@@ -3120,7 +3127,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>42736</v>
       </c>
@@ -3144,7 +3151,7 @@
         <v>42767</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>52</v>
@@ -3163,7 +3170,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>70</v>
@@ -3180,7 +3187,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>42767</v>
       </c>
@@ -3200,7 +3207,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>42795</v>
       </c>
@@ -3220,7 +3227,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>42826</v>
       </c>
@@ -3240,7 +3247,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>42856</v>
       </c>
@@ -3266,7 +3273,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>71</v>
@@ -3285,7 +3292,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>42887</v>
       </c>
@@ -3305,7 +3312,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>42917</v>
       </c>
@@ -3325,7 +3332,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>42948</v>
       </c>
@@ -3345,7 +3352,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>42979</v>
       </c>
@@ -3365,7 +3372,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>43009</v>
       </c>
@@ -3391,7 +3398,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>43040</v>
       </c>
@@ -3417,7 +3424,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>43070</v>
       </c>
@@ -3437,7 +3444,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="48" t="s">
         <v>63</v>
       </c>
@@ -3455,7 +3462,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>43101</v>
       </c>
@@ -3475,7 +3482,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>43132</v>
       </c>
@@ -3495,7 +3502,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>43160</v>
       </c>
@@ -3515,7 +3522,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>43191</v>
       </c>
@@ -3535,7 +3542,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>43221</v>
       </c>
@@ -3561,7 +3568,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>43252</v>
       </c>
@@ -3581,7 +3588,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>43282</v>
       </c>
@@ -3601,7 +3608,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>43313</v>
       </c>
@@ -3621,7 +3628,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>43344</v>
       </c>
@@ -3647,7 +3654,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>80</v>
@@ -3666,7 +3673,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>43374</v>
       </c>
@@ -3686,7 +3693,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>43405</v>
       </c>
@@ -3706,7 +3713,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>43435</v>
       </c>
@@ -3726,7 +3733,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="48" t="s">
         <v>64</v>
       </c>
@@ -3744,7 +3751,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>43466</v>
       </c>
@@ -3764,7 +3771,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>43497</v>
       </c>
@@ -3784,7 +3791,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>43525</v>
       </c>
@@ -3804,7 +3811,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>43556</v>
       </c>
@@ -3824,7 +3831,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>43586</v>
       </c>
@@ -3848,7 +3855,7 @@
         <v>43603</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>85</v>
@@ -3867,7 +3874,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>43617</v>
       </c>
@@ -3887,7 +3894,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>43647</v>
       </c>
@@ -3907,7 +3914,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>43678</v>
       </c>
@@ -3927,7 +3934,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>43709</v>
       </c>
@@ -3947,7 +3954,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>43739</v>
       </c>
@@ -3967,7 +3974,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>43770</v>
       </c>
@@ -3987,7 +3994,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>43800</v>
       </c>
@@ -4013,7 +4020,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="48" t="s">
         <v>89</v>
       </c>
@@ -4031,7 +4038,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>43831</v>
       </c>
@@ -4051,7 +4058,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>43862</v>
       </c>
@@ -4071,7 +4078,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>43891</v>
       </c>
@@ -4091,7 +4098,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>43922</v>
       </c>
@@ -4111,7 +4118,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>43952</v>
       </c>
@@ -4131,7 +4138,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>43983</v>
       </c>
@@ -4151,7 +4158,7 @@
       <c r="J136" s="12"/>
       <c r="K136" s="15"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>44013</v>
       </c>
@@ -4171,7 +4178,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>44044</v>
       </c>
@@ -4191,7 +4198,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>44075</v>
       </c>
@@ -4211,7 +4218,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>44105</v>
       </c>
@@ -4231,7 +4238,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>44136</v>
       </c>
@@ -4251,7 +4258,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>44166</v>
       </c>
@@ -4275,7 +4282,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="48" t="s">
         <v>90</v>
       </c>
@@ -4293,7 +4300,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>44197</v>
       </c>
@@ -4313,7 +4320,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>44228</v>
       </c>
@@ -4333,7 +4340,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>44256</v>
       </c>
@@ -4353,7 +4360,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>44287</v>
       </c>
@@ -4373,7 +4380,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>44317</v>
       </c>
@@ -4393,7 +4400,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>44348</v>
       </c>
@@ -4413,7 +4420,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>44378</v>
       </c>
@@ -4433,7 +4440,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>44409</v>
       </c>
@@ -4453,7 +4460,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>44440</v>
       </c>
@@ -4473,7 +4480,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>44470</v>
       </c>
@@ -4493,7 +4500,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>44501</v>
       </c>
@@ -4513,7 +4520,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>44531</v>
       </c>
@@ -4537,7 +4544,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="48" t="s">
         <v>91</v>
       </c>
@@ -4555,7 +4562,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>44562</v>
       </c>
@@ -4575,7 +4582,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>44593</v>
       </c>
@@ -4595,7 +4602,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>44621</v>
       </c>
@@ -4615,7 +4622,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>44652</v>
       </c>
@@ -4635,7 +4642,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>44682</v>
       </c>
@@ -4655,7 +4662,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>44713</v>
       </c>
@@ -4681,7 +4688,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>44743</v>
       </c>
@@ -4701,7 +4708,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>44774</v>
       </c>
@@ -4721,7 +4728,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>44805</v>
       </c>
@@ -4747,7 +4754,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>44835</v>
       </c>
@@ -4767,7 +4774,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>44866</v>
       </c>
@@ -4791,7 +4798,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>44896</v>
       </c>
@@ -4811,7 +4818,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="48" t="s">
         <v>95</v>
       </c>
@@ -4829,7 +4836,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>44927</v>
       </c>
@@ -4849,7 +4856,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>44958</v>
       </c>
@@ -4873,7 +4880,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>44986</v>
       </c>
@@ -4899,7 +4906,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>98</v>
@@ -4921,29 +4928,33 @@
         <v>99</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>45017</v>
       </c>
       <c r="B174" s="20"/>
-      <c r="C174" s="13"/>
+      <c r="C174" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D174" s="39"/>
       <c r="E174" s="9"/>
       <c r="F174" s="20"/>
-      <c r="G174" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G174" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H174" s="39"/>
       <c r="I174" s="9"/>
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <v>45047</v>
       </c>
-      <c r="B175" s="20"/>
+      <c r="B175" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="C175" s="13"/>
       <c r="D175" s="39"/>
       <c r="E175" s="9"/>
@@ -4955,9 +4966,11 @@
       <c r="H175" s="39"/>
       <c r="I175" s="9"/>
       <c r="J175" s="11"/>
-      <c r="K175" s="20"/>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K175" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>45078</v>
       </c>
@@ -4975,7 +4988,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>45108</v>
       </c>
@@ -4993,7 +5006,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>45139</v>
       </c>
@@ -5011,7 +5024,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>45170</v>
       </c>
@@ -5029,7 +5042,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>45200</v>
       </c>
@@ -5047,7 +5060,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>45231</v>
       </c>
@@ -5065,7 +5078,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>45261</v>
       </c>
@@ -5083,7 +5096,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>45292</v>
       </c>
@@ -5101,7 +5114,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>45323</v>
       </c>
@@ -5119,7 +5132,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>45352</v>
       </c>
@@ -5137,7 +5150,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>45383</v>
       </c>
@@ -5155,7 +5168,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>45413</v>
       </c>
@@ -5173,7 +5186,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>45444</v>
       </c>
@@ -5191,7 +5204,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>45474</v>
       </c>
@@ -5209,7 +5222,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>45505</v>
       </c>
@@ -5227,7 +5240,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>45536</v>
       </c>
@@ -5245,7 +5258,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>45566</v>
       </c>
@@ -5263,7 +5276,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>45597</v>
       </c>
@@ -5281,7 +5294,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>45627</v>
       </c>
@@ -5299,7 +5312,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>45658</v>
       </c>
@@ -5317,7 +5330,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>45689</v>
       </c>
@@ -5335,7 +5348,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>45717</v>
       </c>
@@ -5353,7 +5366,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>45748</v>
       </c>
@@ -5371,7 +5384,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>45778</v>
       </c>
@@ -5389,7 +5402,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>45809</v>
       </c>
@@ -5407,7 +5420,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>45839</v>
       </c>
@@ -5425,7 +5438,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>45870</v>
       </c>
@@ -5443,7 +5456,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>45901</v>
       </c>
@@ -5461,7 +5474,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>45931</v>
       </c>
@@ -5479,7 +5492,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <v>45962</v>
       </c>
@@ -5497,7 +5510,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>45992</v>
       </c>
@@ -5515,7 +5528,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>46023</v>
       </c>
@@ -5533,7 +5546,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>46054</v>
       </c>
@@ -5551,7 +5564,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>46082</v>
       </c>
@@ -5569,7 +5582,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>46113</v>
       </c>
@@ -5587,7 +5600,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>46143</v>
       </c>
@@ -5605,7 +5618,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <v>46174</v>
       </c>
@@ -5623,7 +5636,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40"/>
       <c r="B213" s="20"/>
       <c r="C213" s="13"/>
@@ -5639,7 +5652,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40"/>
       <c r="B214" s="20"/>
       <c r="C214" s="13"/>
@@ -5655,7 +5668,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40"/>
       <c r="B215" s="20"/>
       <c r="C215" s="13"/>
@@ -5671,7 +5684,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20"/>
       <c r="C216" s="13"/>
@@ -5687,7 +5700,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20"/>
       <c r="C217" s="13"/>
@@ -5703,7 +5716,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40"/>
       <c r="B218" s="20"/>
       <c r="C218" s="13"/>
@@ -5719,7 +5732,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40"/>
       <c r="B219" s="20"/>
       <c r="C219" s="13"/>
@@ -5735,7 +5748,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40"/>
       <c r="B220" s="20"/>
       <c r="C220" s="13"/>
@@ -5751,7 +5764,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20"/>
       <c r="C221" s="13"/>
@@ -5767,7 +5780,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20"/>
       <c r="C222" s="13"/>
@@ -5783,7 +5796,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20"/>
       <c r="C223" s="13"/>
@@ -5799,7 +5812,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="20"/>
       <c r="C224" s="13"/>
@@ -5815,7 +5828,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20"/>
       <c r="C225" s="13"/>
@@ -5831,7 +5844,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="20"/>
       <c r="C226" s="13"/>
@@ -5847,7 +5860,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20"/>
       <c r="C227" s="13"/>
@@ -5863,7 +5876,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40"/>
       <c r="B228" s="20"/>
       <c r="C228" s="13"/>
@@ -5879,7 +5892,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20"/>
       <c r="C229" s="13"/>
@@ -5895,7 +5908,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40"/>
       <c r="B230" s="20"/>
       <c r="C230" s="13"/>
@@ -5911,7 +5924,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20"/>
       <c r="C231" s="13"/>
@@ -5927,7 +5940,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20"/>
       <c r="C232" s="13"/>
@@ -5943,7 +5956,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="20"/>
       <c r="C233" s="13"/>
@@ -5959,7 +5972,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20"/>
       <c r="C234" s="13"/>
@@ -5975,7 +5988,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20"/>
       <c r="C235" s="13"/>
@@ -5991,7 +6004,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40"/>
       <c r="B236" s="20"/>
       <c r="C236" s="13"/>
@@ -6007,7 +6020,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20"/>
       <c r="C237" s="13"/>
@@ -6023,7 +6036,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20"/>
       <c r="C238" s="13"/>
@@ -6039,7 +6052,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20"/>
       <c r="C239" s="13"/>
@@ -6055,7 +6068,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40"/>
       <c r="B240" s="20"/>
       <c r="C240" s="13"/>
@@ -6071,7 +6084,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20"/>
       <c r="C241" s="13"/>
@@ -6087,7 +6100,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="41"/>
       <c r="B242" s="15"/>
       <c r="C242" s="42"/>
@@ -6118,10 +6131,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6144,28 +6157,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -6178,7 +6191,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -6207,7 +6220,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -6227,17 +6240,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -6258,7 +6271,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -6285,7 +6298,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -6311,7 +6324,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -6337,7 +6350,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -6363,7 +6376,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -6389,7 +6402,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -6415,7 +6428,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -6441,7 +6454,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -6467,7 +6480,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -6487,7 +6500,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -6507,7 +6520,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -6527,7 +6540,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -6548,7 +6561,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -6569,7 +6582,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -6590,7 +6603,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -6611,7 +6624,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -6632,7 +6645,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -6653,7 +6666,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -6674,7 +6687,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -6695,7 +6708,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -6716,7 +6729,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -6737,7 +6750,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -6758,7 +6771,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -6779,7 +6792,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -6800,7 +6813,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -6821,7 +6834,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -6842,7 +6855,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6863,7 +6876,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6884,7 +6897,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6905,7 +6918,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6926,7 +6939,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6947,7 +6960,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6956,7 +6969,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6965,7 +6978,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6974,7 +6987,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6983,7 +6996,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -6992,7 +7005,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -7001,7 +7014,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -7010,7 +7023,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -7019,7 +7032,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -7028,7 +7041,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -7037,7 +7050,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -7046,7 +7059,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -7055,7 +7068,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -7064,7 +7077,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -7073,7 +7086,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -7082,7 +7095,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -7091,7 +7104,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -7100,7 +7113,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -7109,7 +7122,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -7118,7 +7131,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -7127,7 +7140,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -7136,7 +7149,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -7145,7 +7158,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -7154,7 +7167,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -7163,7 +7176,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -7172,7 +7185,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -7181,7 +7194,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -7190,7 +7203,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -7199,7 +7212,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -7208,7 +7221,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
